--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1352049.693541882</v>
+        <v>1393142.538469381</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453904</v>
+        <v>5562152.400446147</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.15266807</v>
+        <v>4028287.523710873</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7105504.580230194</v>
+        <v>7512649.432357195</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +664,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>156.1859488606779</v>
+        <v>360.9619221859735</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.091153082097</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>65.31383608752367</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +904,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>53.66750045807105</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -953,7 +955,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>280.5211506364163</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>303.6415613570278</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>333.7643725713981</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1145,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1354,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,19 +1375,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>100.8568651566678</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>41.59999704964297</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>40.13858068950069</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>65.42520756919183</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>141.9872840723884</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -1667,10 +1669,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>300.367573157531</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>136.1769805884549</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,10 +1906,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>20.37090548938816</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>215.3606127872844</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,13 +2092,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>205.293418382671</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>146.5980694263808</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>135.1707626729762</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -2293,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.73179601342657</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -2491,10 +2493,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>14.31662700573764</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>27.35334490128935</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>101.6409518870423</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>292.2732044987391</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2716,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>63.02663910288935</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>21.30608602554517</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>360.5621482941648</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2858,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2968,7 +2970,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.8710203300645</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>47.64512042712315</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3193,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>93.56768587789391</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -3205,7 +3207,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>189.6569930009335</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3274,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>384.5327953590509</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>101.6409518870423</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>17.62297837539295</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3487,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3512,10 +3514,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>378.9769832968749</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -3554,7 +3556,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>194.3204012433882</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>68.95841409481693</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>65.31383608752344</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>297.0182667594507</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>12.33276238106388</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>54.68688746169084</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>120.8714888918863</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3979,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>371.16674246233</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>23.68610619250339</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884548</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4192,16 +4194,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>626.4754170420226</v>
+        <v>1994.727635023779</v>
       </c>
       <c r="C2" t="n">
-        <v>216.3508263552927</v>
+        <v>1584.603044337049</v>
       </c>
       <c r="D2" t="n">
-        <v>58.5872416475372</v>
+        <v>1219.995042128995</v>
       </c>
       <c r="E2" t="n">
-        <v>58.5872416475372</v>
+        <v>805.6548266458916</v>
       </c>
       <c r="F2" t="n">
-        <v>58.5872416475372</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="G2" t="n">
-        <v>58.5872416475372</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>850.932214224331</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L2" t="n">
-        <v>1563.523614036569</v>
+        <v>1040.492788507289</v>
       </c>
       <c r="M2" t="n">
-        <v>2288.540729424842</v>
+        <v>1816.811379499043</v>
       </c>
       <c r="N2" t="n">
-        <v>2888.805436687295</v>
+        <v>2569.992396137661</v>
       </c>
       <c r="O2" t="n">
-        <v>2888.805436687295</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P2" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>2571.87452311782</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U2" t="n">
-        <v>2571.87452311782</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V2" t="n">
-        <v>2222.036968454301</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.276667589469</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="X2" t="n">
-        <v>1437.633269758422</v>
+        <v>2805.885487740179</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.696596706512</v>
+        <v>2404.948814688269</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J3" t="n">
-        <v>251.4000992101705</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="K3" t="n">
-        <v>707.2063554754692</v>
+        <v>2287.925779342289</v>
       </c>
       <c r="L3" t="n">
-        <v>707.2063554754692</v>
+        <v>2813.25926130766</v>
       </c>
       <c r="M3" t="n">
-        <v>707.2063554754692</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="N3" t="n">
-        <v>707.2063554754692</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="O3" t="n">
-        <v>1193.526080325524</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="P3" t="n">
-        <v>1755.231972814054</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="Q3" t="n">
-        <v>2105.076437498037</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1147.921091948674</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C4" t="n">
-        <v>976.8277195103904</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D4" t="n">
-        <v>817.3330748333003</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E4" t="n">
-        <v>656.4222597016197</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F4" t="n">
-        <v>491.791133812211</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G4" t="n">
-        <v>324.5407427377544</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1502.713419943787</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T4" t="n">
-        <v>1263.164680920489</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="U4" t="n">
-        <v>1263.164680920489</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="V4" t="n">
-        <v>1263.164680920489</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="W4" t="n">
-        <v>1263.164680920489</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="X4" t="n">
-        <v>1263.164680920489</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="Y4" t="n">
-        <v>1263.164680920489</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1184.084259613488</v>
+        <v>1711.372937411238</v>
       </c>
       <c r="C5" t="n">
-        <v>773.9596689267587</v>
+        <v>1301.248346724508</v>
       </c>
       <c r="D5" t="n">
-        <v>369.4957390198192</v>
+        <v>896.7844168175683</v>
       </c>
       <c r="E5" t="n">
-        <v>369.4957390198192</v>
+        <v>482.444201334465</v>
       </c>
       <c r="F5" t="n">
-        <v>369.4957390198192</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4957390198192</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K5" t="n">
-        <v>306.5402972640578</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L5" t="n">
-        <v>306.5402972640578</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M5" t="n">
-        <v>1031.557412652331</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N5" t="n">
-        <v>1756.574528040604</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="O5" t="n">
-        <v>2400.205384457709</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P5" t="n">
-        <v>2929.36208237686</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2875.152485954566</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T5" t="n">
-        <v>2652.946001901425</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U5" t="n">
-        <v>2395.885510160935</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V5" t="n">
-        <v>2395.885510160935</v>
+        <v>2923.174187958684</v>
       </c>
       <c r="W5" t="n">
-        <v>2395.885510160935</v>
+        <v>2923.174187958684</v>
       </c>
       <c r="X5" t="n">
-        <v>1995.242112329888</v>
+        <v>2522.530790127637</v>
       </c>
       <c r="Y5" t="n">
-        <v>1594.305439277978</v>
+        <v>2121.594117075727</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>58.5872416475372</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L6" t="n">
-        <v>58.5872416475372</v>
+        <v>896.7025562821959</v>
       </c>
       <c r="M6" t="n">
-        <v>783.60435703581</v>
+        <v>896.7025562821959</v>
       </c>
       <c r="N6" t="n">
-        <v>1508.621472424083</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="O6" t="n">
-        <v>2105.076437498037</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S7" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T7" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U7" t="n">
-        <v>793.9747653465236</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V7" t="n">
-        <v>520.0890202860455</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W7" t="n">
-        <v>241.0193557949199</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>472.9274571306405</v>
+        <v>1954.95323474668</v>
       </c>
       <c r="C8" t="n">
-        <v>472.9274571306405</v>
+        <v>1544.82864405995</v>
       </c>
       <c r="D8" t="n">
-        <v>472.9274571306405</v>
+        <v>1207.69291418985</v>
       </c>
       <c r="E8" t="n">
-        <v>58.5872416475372</v>
+        <v>793.352698706747</v>
       </c>
       <c r="F8" t="n">
-        <v>58.5872416475372</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>312.7727131152915</v>
+        <v>270.9172995859905</v>
       </c>
       <c r="L8" t="n">
-        <v>312.7727131152915</v>
+        <v>983.5086993982285</v>
       </c>
       <c r="M8" t="n">
-        <v>669.8397601674739</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N8" t="n">
-        <v>1394.856875555747</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O8" t="n">
-        <v>2038.487731972852</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P8" t="n">
-        <v>2567.644429892003</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q8" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>2571.87452311782</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U8" t="n">
-        <v>2314.81403137733</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.976476713811</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="W8" t="n">
-        <v>1581.216175848979</v>
+        <v>3166.754485294126</v>
       </c>
       <c r="X8" t="n">
-        <v>1180.572778017932</v>
+        <v>2766.111087463079</v>
       </c>
       <c r="Y8" t="n">
-        <v>779.6361049660221</v>
+        <v>2365.174414411169</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="L9" t="n">
-        <v>58.5872416475372</v>
+        <v>2109.302170761766</v>
       </c>
       <c r="M9" t="n">
-        <v>676.1022315638701</v>
+        <v>2952.279251456333</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.119346952143</v>
+        <v>2952.279251456333</v>
       </c>
       <c r="O9" t="n">
-        <v>2105.076437498037</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U10" t="n">
-        <v>793.9747653465236</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V10" t="n">
-        <v>520.0890202860455</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W10" t="n">
-        <v>241.0193557949199</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1333.800530964582</v>
+        <v>2124.157056153891</v>
       </c>
       <c r="C11" t="n">
-        <v>923.6759402778517</v>
+        <v>1714.032465467161</v>
       </c>
       <c r="D11" t="n">
-        <v>923.6759402778517</v>
+        <v>1309.568535560222</v>
       </c>
       <c r="E11" t="n">
-        <v>509.3357247947484</v>
+        <v>895.2283200771185</v>
       </c>
       <c r="F11" t="n">
-        <v>509.3357247947484</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G11" t="n">
-        <v>100.6074406875806</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K11" t="n">
-        <v>312.7727131152915</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L11" t="n">
-        <v>1025.36411292753</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M11" t="n">
-        <v>1750.381228315802</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N11" t="n">
-        <v>2285.731225959755</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O11" t="n">
-        <v>2929.36208237686</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V11" t="n">
-        <v>2929.36208237686</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W11" t="n">
-        <v>2545.601781512029</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="X11" t="n">
-        <v>2144.958383680981</v>
+        <v>2935.31490887029</v>
       </c>
       <c r="Y11" t="n">
-        <v>1744.021710629071</v>
+        <v>2534.37823581838</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L12" t="n">
-        <v>655.0422067214914</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="M12" t="n">
-        <v>1380.059322109764</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="N12" t="n">
-        <v>2105.076437498037</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>532.3204674085794</v>
+        <v>190.061963122971</v>
       </c>
       <c r="C13" t="n">
-        <v>532.3204674085794</v>
+        <v>190.061963122971</v>
       </c>
       <c r="D13" t="n">
-        <v>372.8258227314893</v>
+        <v>190.061963122971</v>
       </c>
       <c r="E13" t="n">
-        <v>372.8258227314893</v>
+        <v>190.061963122971</v>
       </c>
       <c r="F13" t="n">
-        <v>208.1946968420806</v>
+        <v>190.061963122971</v>
       </c>
       <c r="G13" t="n">
-        <v>208.1946968420806</v>
+        <v>190.061963122971</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S13" t="n">
-        <v>1502.713419943787</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T13" t="n">
-        <v>1502.713419943787</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U13" t="n">
-        <v>1502.713419943787</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V13" t="n">
-        <v>1462.169399045301</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W13" t="n">
-        <v>1183.099734554176</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X13" t="n">
-        <v>944.755872413859</v>
+        <v>190.061963122971</v>
       </c>
       <c r="Y13" t="n">
-        <v>720.0201738026237</v>
+        <v>190.061963122971</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>876.8779137490585</v>
+        <v>1867.096564413401</v>
       </c>
       <c r="C14" t="n">
-        <v>876.8779137490585</v>
+        <v>1456.971973726671</v>
       </c>
       <c r="D14" t="n">
-        <v>876.8779137490585</v>
+        <v>1052.508043819731</v>
       </c>
       <c r="E14" t="n">
-        <v>876.8779137490585</v>
+        <v>638.1678283366282</v>
       </c>
       <c r="F14" t="n">
-        <v>455.8475017027461</v>
+        <v>217.1374162903157</v>
       </c>
       <c r="G14" t="n">
-        <v>455.8475017027461</v>
+        <v>217.1374162903157</v>
       </c>
       <c r="H14" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>312.7727131152915</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>312.7727131152915</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M14" t="n">
-        <v>669.8397601674739</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N14" t="n">
-        <v>1394.856875555747</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O14" t="n">
-        <v>2038.487731972852</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P14" t="n">
-        <v>2567.644429892003</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q14" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>2314.81403137733</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V14" t="n">
-        <v>1964.976476713811</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="W14" t="n">
-        <v>1581.216175848979</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="X14" t="n">
-        <v>1277.814586800968</v>
+        <v>2678.2544171298</v>
       </c>
       <c r="Y14" t="n">
-        <v>876.8779137490585</v>
+        <v>2277.31774407789</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M15" t="n">
-        <v>676.1022315638701</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>1894.567435957778</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>809.1034409262836</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5552,13 +5554,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>757.1294022244522</v>
+        <v>594.0158422120428</v>
       </c>
       <c r="C19" t="n">
-        <v>586.0360297861687</v>
+        <v>422.9224697737593</v>
       </c>
       <c r="D19" t="n">
-        <v>586.0360297861687</v>
+        <v>263.4278250966693</v>
       </c>
       <c r="E19" t="n">
-        <v>425.1252146544881</v>
+        <v>263.4278250966693</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4940887650794</v>
+        <v>263.4278250966693</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1436.250826191383</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>1218.714853678975</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V19" t="n">
-        <v>944.8291086184965</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W19" t="n">
-        <v>944.8291086184965</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X19" t="n">
-        <v>944.8291086184965</v>
+        <v>594.0158422120428</v>
       </c>
       <c r="Y19" t="n">
-        <v>944.8291086184965</v>
+        <v>594.0158422120428</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5783,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5837,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>1266.074801429505</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1159.563033559921</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="E22" t="n">
         <v>691.0787157447054</v>
@@ -5941,19 +5943,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X22" t="n">
-        <v>1384.298732171156</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="Y22" t="n">
-        <v>1159.563033559921</v>
+        <v>827.6148396568026</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2151.931129920876</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C23" t="n">
-        <v>1741.806539234146</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4576.597211790305</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4354.390727737164</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4097.330235996674</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3747.492681333154</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3363.732380468323</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X23" t="n">
-        <v>2963.088982637275</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.152309585365</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>600.4972691859036</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C25" t="n">
-        <v>600.4972691859036</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D25" t="n">
-        <v>600.4972691859036</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E25" t="n">
-        <v>439.5864540542231</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F25" t="n">
-        <v>274.9553281648144</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>107.7049370903578</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U25" t="n">
-        <v>1153.452678737507</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V25" t="n">
-        <v>879.5669336770293</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W25" t="n">
-        <v>600.4972691859036</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X25" t="n">
-        <v>600.4972691859036</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="Y25" t="n">
-        <v>600.4972691859036</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2134.851174492981</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1724.726583806251</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
         <v>1320.262653899312</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4559.51725636241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4337.310772309269</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U26" t="n">
-        <v>4080.250280568779</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V26" t="n">
-        <v>3730.41272590526</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
-        <v>3346.652425040428</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2946.009027209381</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2545.072354157471</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6315,7 +6317,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3292.280632587379</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="C28" t="n">
-        <v>3292.280632587379</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D28" t="n">
-        <v>3132.785987910289</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>4150.971659063151</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>3868.173511609275</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>3594.287766548796</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W28" t="n">
-        <v>3530.624494727696</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X28" t="n">
-        <v>3292.280632587379</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="Y28" t="n">
-        <v>3292.280632587379</v>
+        <v>254.1545128223033</v>
       </c>
     </row>
     <row r="29">
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O30" t="n">
-        <v>1809.878870496807</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P30" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4105.773792315753</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>3934.680419877469</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>3775.185775200379</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>3614.274960068698</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>3449.64383417929</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>3282.393443104833</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4422.636145507842</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>4422.636145507842</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>4422.636145507842</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W31" t="n">
-        <v>4422.636145507842</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X31" t="n">
-        <v>4422.636145507842</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y31" t="n">
-        <v>4293.473498709797</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6691,10 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>141.3700819604442</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6783,13 +6785,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>754.331869609911</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N33" t="n">
-        <v>1627.989961721529</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>410.1015439596227</v>
+        <v>785.5915297627801</v>
       </c>
       <c r="C34" t="n">
-        <v>410.1015439596227</v>
+        <v>785.5915297627801</v>
       </c>
       <c r="D34" t="n">
-        <v>410.1015439596227</v>
+        <v>785.5915297627801</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1015439596227</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
-        <v>410.1015439596227</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>1383.093855288175</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U34" t="n">
-        <v>1100.295707834299</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V34" t="n">
-        <v>826.4099627738212</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="W34" t="n">
-        <v>826.4099627738212</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="X34" t="n">
-        <v>634.8372425708581</v>
+        <v>785.5915297627801</v>
       </c>
       <c r="Y34" t="n">
-        <v>410.1015439596227</v>
+        <v>785.5915297627801</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E35" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
         <v>899.2322418529996</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4559.51725636241</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4337.310772309269</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="36">
@@ -7023,13 +7025,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3315.218102057671</v>
+        <v>3303.879360348573</v>
       </c>
       <c r="C37" t="n">
-        <v>3315.218102057671</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D37" t="n">
-        <v>3315.218102057671</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E37" t="n">
-        <v>3315.218102057671</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F37" t="n">
-        <v>3150.586976168262</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G37" t="n">
         <v>3132.785987910289</v>
@@ -7117,28 +7119,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S37" t="n">
-        <v>4390.520398086449</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T37" t="n">
-        <v>4150.971659063151</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U37" t="n">
-        <v>3868.173511609275</v>
+        <v>4507.614037045773</v>
       </c>
       <c r="V37" t="n">
-        <v>3594.287766548796</v>
+        <v>4233.728291985295</v>
       </c>
       <c r="W37" t="n">
-        <v>3315.218102057671</v>
+        <v>3954.658627494169</v>
       </c>
       <c r="X37" t="n">
-        <v>3315.218102057671</v>
+        <v>3716.314765353853</v>
       </c>
       <c r="Y37" t="n">
-        <v>3315.218102057671</v>
+        <v>3491.579066742617</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
         <v>490.5039577458317</v>
@@ -7202,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4330.62057574606</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4073.56008400557</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3723.722529342051</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7262,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N39" t="n">
         <v>1435.775802995229</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>323.8094765544416</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C40" t="n">
-        <v>323.8094765544416</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D40" t="n">
-        <v>323.8094765544416</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>162.8986614227611</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>162.8986614227611</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>162.8986614227611</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7357,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U40" t="n">
-        <v>1339.844446857597</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V40" t="n">
-        <v>1065.958701797119</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W40" t="n">
-        <v>786.8890373059935</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X40" t="n">
-        <v>548.5451751656769</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="Y40" t="n">
-        <v>323.8094765544416</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>479.6176536938497</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C41" t="n">
-        <v>479.6176536938497</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D41" t="n">
-        <v>479.6176536938497</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E41" t="n">
-        <v>479.6176536938497</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F41" t="n">
-        <v>58.5872416475372</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L41" t="n">
-        <v>835.6969951832094</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M41" t="n">
-        <v>1560.714110571482</v>
+        <v>1719.270644700418</v>
       </c>
       <c r="N41" t="n">
-        <v>2285.731225959755</v>
+        <v>2472.451661339036</v>
       </c>
       <c r="O41" t="n">
-        <v>2929.36208237686</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P41" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>2314.81403137733</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V41" t="n">
-        <v>1964.976476713811</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W41" t="n">
-        <v>1581.216175848979</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X41" t="n">
-        <v>1180.572778017932</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y41" t="n">
-        <v>779.6361049660221</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M42" t="n">
-        <v>58.5872416475372</v>
+        <v>513.0304110576551</v>
       </c>
       <c r="N42" t="n">
-        <v>460.0094704169994</v>
+        <v>1386.688503169273</v>
       </c>
       <c r="O42" t="n">
-        <v>1163.966560962894</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.672453451424</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q42" t="n">
-        <v>2075.516918135407</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2278.582815231264</v>
+        <v>2488.401152313972</v>
       </c>
       <c r="C43" t="n">
-        <v>2107.48944279298</v>
+        <v>2317.307779875688</v>
       </c>
       <c r="D43" t="n">
-        <v>1947.99479811589</v>
+        <v>2317.307779875688</v>
       </c>
       <c r="E43" t="n">
-        <v>1787.08398298421</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="F43" t="n">
-        <v>1622.452857094801</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="G43" t="n">
-        <v>1455.202466020344</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="H43" t="n">
-        <v>1399.96318575601</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="I43" t="n">
-        <v>1399.96318575601</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="J43" t="n">
-        <v>1414.045735161221</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K43" t="n">
-        <v>1568.598062883459</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L43" t="n">
-        <v>1828.495163163519</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M43" t="n">
-        <v>2117.759219604013</v>
+        <v>2874.19299859201</v>
       </c>
       <c r="N43" t="n">
-        <v>2398.598001998263</v>
+        <v>3155.03178098626</v>
       </c>
       <c r="O43" t="n">
-        <v>2658.158612324737</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P43" t="n">
-        <v>2863.834052574349</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q43" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R43" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S43" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T43" t="n">
-        <v>2929.36208237686</v>
+        <v>3446.247122341559</v>
       </c>
       <c r="U43" t="n">
-        <v>2929.36208237686</v>
+        <v>3163.448974887683</v>
       </c>
       <c r="V43" t="n">
-        <v>2929.36208237686</v>
+        <v>2889.563229827205</v>
       </c>
       <c r="W43" t="n">
-        <v>2929.36208237686</v>
+        <v>2610.493565336079</v>
       </c>
       <c r="X43" t="n">
-        <v>2691.018220236544</v>
+        <v>2488.401152313972</v>
       </c>
       <c r="Y43" t="n">
-        <v>2466.282521625308</v>
+        <v>2488.401152313972</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>854.5335551709506</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C44" t="n">
-        <v>854.5335551709506</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D44" t="n">
-        <v>854.5335551709506</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="E44" t="n">
-        <v>479.6176536938497</v>
+        <v>915.9319491192259</v>
       </c>
       <c r="F44" t="n">
-        <v>58.5872416475372</v>
+        <v>494.9015370729135</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>850.932214224331</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>1563.523614036569</v>
+        <v>942.9520537086636</v>
       </c>
       <c r="M44" t="n">
-        <v>1842.62731450373</v>
+        <v>1719.270644700418</v>
       </c>
       <c r="N44" t="n">
-        <v>2567.644429892003</v>
+        <v>2472.451661339036</v>
       </c>
       <c r="O44" t="n">
-        <v>2567.644429892003</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P44" t="n">
-        <v>2567.644429892003</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>2707.155598323719</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>2450.095106583229</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>2450.095106583229</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W44" t="n">
-        <v>2066.334805718398</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X44" t="n">
-        <v>1665.69140788735</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y44" t="n">
-        <v>1264.75473483544</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>251.4000992101705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>251.4000992101705</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L45" t="n">
-        <v>912.4882711294587</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M45" t="n">
-        <v>912.4882711294587</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N45" t="n">
-        <v>1051.274882268159</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O45" t="n">
-        <v>1755.231972814054</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P45" t="n">
-        <v>1755.231972814054</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>793.9747653465236</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>793.9747653465236</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>793.9747653465236</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>656.4222597016197</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1316.321651823697</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1076.772912800399</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U46" t="n">
-        <v>793.9747653465236</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V46" t="n">
-        <v>793.9747653465236</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W46" t="n">
-        <v>793.9747653465236</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X46" t="n">
-        <v>793.9747653465236</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y46" t="n">
-        <v>793.9747653465236</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>699.2402778904104</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>644.7959590787925</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8061,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>586.7544045839516</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>548.9835243030853</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>339.5940216090965</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>835.0261771304423</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8295,25 +8297,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>427.0037993558997</v>
       </c>
       <c r="M6" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
-        <v>660.231241700964</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>288.3297051870488</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9640093582398</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8471,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,13 +8537,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>530.8574584041912</v>
       </c>
       <c r="M9" t="n">
-        <v>681.3167988054204</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
@@ -8553,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6698641343496</v>
+        <v>509.2990563003282</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8769,25 +8771,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>658.5942865118129</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>743.7439864875636</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9640093582398</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>143.9276901540081</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -9006,22 +9008,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>681.3167988054204</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>282.1764805785804</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9242,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>194.2512024630824</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -9255,7 +9257,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9483,7 +9485,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
@@ -9492,7 +9494,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9963,10 +9965,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10191,25 +10193,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q30" t="n">
-        <v>389.8785003677836</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10431,16 +10433,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>574.6635313430244</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10671,16 +10673,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>675.0496721821739</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,10 +10910,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N39" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
         <v>768.8192472281761</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>336.8492894028778</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>235.3289669662258</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,19 +11147,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>501.316297708476</v>
       </c>
       <c r="N42" t="n">
-        <v>458.6703921507826</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11300,22 +11302,22 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024792</v>
+        <v>173.153240390696</v>
       </c>
       <c r="M44" t="n">
-        <v>375.2131542218547</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447774</v>
       </c>
       <c r="N45" t="n">
-        <v>193.3818894934477</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22550,19 +22552,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>244.2333417471921</v>
+        <v>39.45736842189649</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22595,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.73155624800697</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -22771,7 +22773,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>157.1745055375993</v>
       </c>
     </row>
     <row r="5">
@@ -22790,16 +22792,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>80.26076399576908</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22841,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>65.81802848046783</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -23005,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300461</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.4774065108168</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>66.65491803647194</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,10 +23035,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23072,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300461</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>315.9632427691815</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>266.1994153489162</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23315,10 +23317,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>231.0083069203726</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>170.5352159497216</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>165.8121283261708</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>96.26939069520597</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>23.12472639190884</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>45.84716204233376</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>145.2069816743239</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>64.60955319205266</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24023,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>22.78436928751989</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>24.13094430738749</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>49.19646844041357</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.7947536368603</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176241</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>32.28731256679784</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>54.06597461814499</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24604,10 +24606,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>213.252328743325</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>214.6543374933683</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>45.55681957367977</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -24901,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y31" t="n">
-        <v>94.6173212950584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>37.84312462897442</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>65.73402110246981</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>46.3034305179799</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25160,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>25.66401796922133</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>32.28731256679784</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25321,10 +25323,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>147.9549087883191</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>126.9450269688244</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25400,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>37.84312462897441</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25442,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>25.66401796922159</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>79.15296654778098</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>157.1745055375995</v>
       </c>
     </row>
     <row r="41">
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>109.1007011083938</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>388.0865282268061</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>93.42449318090706</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25837,22 +25839,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>115.0889346270271</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>39.03007086594226</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>380.9548950735927</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190895</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>534570.0411974887</v>
+        <v>604671.4100402681</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>534570.041197489</v>
+        <v>604671.4100402682</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>534570.0411974889</v>
+        <v>604671.4100402682</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>534570.0411974889</v>
+        <v>604671.4100402683</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>534570.0411974889</v>
+        <v>604671.4100402681</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695156.8020842248</v>
+        <v>695156.8020842249</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>695156.8020842248</v>
+        <v>695156.8020842249</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695156.8020842248</v>
+        <v>695156.8020842251</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695156.802084225</v>
+        <v>695156.8020842246</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>534570.0411974888</v>
+        <v>604671.4100402682</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>534570.0411974888</v>
+        <v>604671.4100402683</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="C2" t="n">
-        <v>245011.2688821827</v>
+        <v>277141.0629351231</v>
       </c>
       <c r="D2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.0629351231</v>
       </c>
       <c r="E2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.0629351233</v>
       </c>
       <c r="F2" t="n">
-        <v>245011.2688821825</v>
+        <v>277141.0629351231</v>
       </c>
       <c r="G2" t="n">
-        <v>318613.5342886033</v>
+        <v>318613.5342886032</v>
       </c>
       <c r="H2" t="n">
-        <v>318613.5342886031</v>
+        <v>318613.5342886032</v>
       </c>
       <c r="I2" t="n">
         <v>318613.5342886032</v>
@@ -26338,22 +26340,22 @@
         <v>318613.5342886032</v>
       </c>
       <c r="K2" t="n">
-        <v>318613.5342886032</v>
+        <v>318613.5342886031</v>
       </c>
       <c r="L2" t="n">
         <v>318613.5342886031</v>
       </c>
       <c r="M2" t="n">
+        <v>318613.5342886033</v>
+      </c>
+      <c r="N2" t="n">
         <v>318613.5342886031</v>
       </c>
-      <c r="N2" t="n">
-        <v>318613.5342886032</v>
-      </c>
       <c r="O2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.0629351229</v>
       </c>
       <c r="P2" t="n">
-        <v>245011.2688821825</v>
+        <v>277141.062935123</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.3187768863872</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="C4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="D4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="E4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156231</v>
       </c>
       <c r="F4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="G4" t="n">
         <v>738.1279301446466</v>
@@ -26454,10 +26456,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="P4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79100.1058299272</v>
+        <v>-121932.100434782</v>
       </c>
       <c r="C6" t="n">
-        <v>166324.046453168</v>
+        <v>186866.6411772617</v>
       </c>
       <c r="D6" t="n">
-        <v>166324.046453168</v>
+        <v>186866.6411772617</v>
       </c>
       <c r="E6" t="n">
-        <v>199951.646453168</v>
+        <v>220494.2411772618</v>
       </c>
       <c r="F6" t="n">
-        <v>199951.6464531679</v>
+        <v>220494.2411772617</v>
       </c>
       <c r="G6" t="n">
-        <v>128275.0116814714</v>
+        <v>180106.7997599526</v>
       </c>
       <c r="H6" t="n">
-        <v>247010.1961135851</v>
+        <v>247010.1961135853</v>
       </c>
       <c r="I6" t="n">
         <v>247010.1961135852</v>
       </c>
       <c r="J6" t="n">
-        <v>55397.6929432324</v>
+        <v>5918.60302584857</v>
       </c>
       <c r="K6" t="n">
-        <v>247010.1961135853</v>
+        <v>247010.1961135851</v>
       </c>
       <c r="L6" t="n">
         <v>247010.1961135851</v>
       </c>
       <c r="M6" t="n">
+        <v>247010.1961135853</v>
+      </c>
+      <c r="N6" t="n">
         <v>247010.1961135851</v>
       </c>
-      <c r="N6" t="n">
-        <v>247010.1961135852</v>
-      </c>
       <c r="O6" t="n">
-        <v>199951.646453168</v>
+        <v>220494.2411772615</v>
       </c>
       <c r="P6" t="n">
-        <v>199951.6464531679</v>
+        <v>220494.2411772616</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>606.3279871337911</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>551.6061834530094</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>530.6398807731025</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>491.2320453030854</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>250.4576319358794</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>742.113886373823</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8892755450506</v>
       </c>
       <c r="M6" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
-        <v>602.479762700964</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>199.1933155138316</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>360.6737849011943</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35191,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>474.7429345933422</v>
       </c>
       <c r="M9" t="n">
-        <v>623.7525150670029</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>540.7575733777303</v>
+        <v>416.3867655437089</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>602.4797627009639</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>685.9925074875636</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>360.6737849011943</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>51.01539939738873</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>623.7525150670029</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>227.9168455757767</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.425419678467</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,7 +35977,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
@@ -36212,7 +36214,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36683,10 +36685,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>516.9120523430244</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>617.2981931821739</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
         <v>711.0677682281761</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>241.363891340033</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>142.0387425091803</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>443.7520139700586</v>
       </c>
       <c r="N42" t="n">
-        <v>405.4769987570326</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -38020,22 +38022,22 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>719.7892927396343</v>
+        <v>77.66784232785115</v>
       </c>
       <c r="M44" t="n">
-        <v>281.9229297648093</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>18.22667726606031</v>
       </c>
       <c r="N45" t="n">
-        <v>140.1884960996977</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1393142.538469381</v>
+        <v>1390634.186743469</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446147</v>
+        <v>5562152.400446148</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4028287.523710873</v>
+        <v>4028287.523710872</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7512649.432357195</v>
+        <v>7512649.432357197</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>360.9619221859735</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -673,10 +673,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>154.7701818793703</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>262.253757051989</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.31383608752367</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>280.5211506364163</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>392.2833020777496</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1110,7 +1110,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059089</v>
+        <v>136.6868991713733</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>333.7643725713981</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>104.3879894714777</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>136.6868991713733</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1347,7 +1347,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>199.215560654284</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1381,7 +1381,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>100.8568651566678</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1438,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>65.42520756919183</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1621,10 +1621,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>141.9872840723884</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>276.1946506659154</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>136.1769805884549</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214528</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1897,19 +1897,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>334.0755358138493</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>20.37090548938816</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="U20" t="n">
-        <v>205.293418382671</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>135.1707626729762</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2301,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>292.2732044987391</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>21.30608602554517</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>360.5621482941648</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2860,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>47.64512042712315</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>93.56768587789391</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>101.6409518870423</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>153.0251390105127</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>119.8051733265735</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3556,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>194.3204012433882</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.31383608752344</v>
+        <v>129.1752199258842</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>12.33276238106388</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>101.1703138352421</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>113.1773371911337</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>120.8714888918863</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3991,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>23.68610619250339</v>
+        <v>16.55447303929008</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1994.727635023779</v>
+        <v>1727.939419550611</v>
       </c>
       <c r="C2" t="n">
-        <v>1584.603044337049</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="D2" t="n">
-        <v>1219.995042128995</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E2" t="n">
-        <v>805.6548266458916</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F2" t="n">
-        <v>384.6244145995792</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G2" t="n">
-        <v>384.6244145995792</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H2" t="n">
         <v>73.71591722729714</v>
@@ -4333,22 +4333,22 @@
         <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>327.9013886950514</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.492788507289</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M2" t="n">
-        <v>1816.811379499043</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="N2" t="n">
-        <v>2569.992396137661</v>
+        <v>2331.833306254947</v>
       </c>
       <c r="O2" t="n">
-        <v>3116.082517756141</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P2" t="n">
-        <v>3645.239215675292</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q2" t="n">
         <v>3645.239215675292</v>
@@ -4360,22 +4360,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>3463.589377311716</v>
+        <v>3529.462344314988</v>
       </c>
       <c r="U2" t="n">
-        <v>3206.528885571226</v>
+        <v>3272.401852574498</v>
       </c>
       <c r="V2" t="n">
-        <v>3206.528885571226</v>
+        <v>2922.564297910979</v>
       </c>
       <c r="W2" t="n">
-        <v>3206.528885571226</v>
+        <v>2538.803997046147</v>
       </c>
       <c r="X2" t="n">
-        <v>2805.885487740179</v>
+        <v>2138.1605992151</v>
       </c>
       <c r="Y2" t="n">
-        <v>2404.948814688269</v>
+        <v>2138.1605992151</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>1832.11952307699</v>
       </c>
       <c r="K3" t="n">
-        <v>2287.925779342289</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="L3" t="n">
-        <v>2813.25926130766</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="M3" t="n">
-        <v>3656.236342002227</v>
+        <v>2675.096603771557</v>
       </c>
       <c r="N3" t="n">
-        <v>3656.236342002227</v>
+        <v>3548.754695883175</v>
       </c>
       <c r="O3" t="n">
-        <v>3656.236342002227</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P3" t="n">
-        <v>3656.236342002227</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q3" t="n">
-        <v>3656.236342002227</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R3" t="n">
         <v>3685.795861364857</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4515,25 +4515,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1416.723045728058</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1416.723045728058</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.723045728058</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V4" t="n">
-        <v>1416.723045728058</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W4" t="n">
-        <v>1416.723045728058</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X4" t="n">
-        <v>1416.723045728058</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y4" t="n">
-        <v>1350.749473922478</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1711.372937411238</v>
+        <v>1387.600109407435</v>
       </c>
       <c r="C5" t="n">
-        <v>1301.248346724508</v>
+        <v>1387.600109407435</v>
       </c>
       <c r="D5" t="n">
-        <v>896.7844168175683</v>
+        <v>983.1361795004951</v>
       </c>
       <c r="E5" t="n">
-        <v>482.444201334465</v>
+        <v>568.7959640173918</v>
       </c>
       <c r="F5" t="n">
-        <v>482.444201334465</v>
+        <v>568.7959640173918</v>
       </c>
       <c r="G5" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
         <v>73.71591722729714</v>
@@ -4573,46 +4573,46 @@
         <v>611.8754183363367</v>
       </c>
       <c r="L5" t="n">
-        <v>1324.466818148575</v>
+        <v>621.7910469133716</v>
       </c>
       <c r="M5" t="n">
-        <v>2100.785409140329</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N5" t="n">
-        <v>2835.478156650413</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O5" t="n">
-        <v>2835.478156650413</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P5" t="n">
-        <v>3364.634854569565</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q5" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>3463.589377311716</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U5" t="n">
-        <v>3206.528885571226</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V5" t="n">
-        <v>2923.174187958684</v>
+        <v>2978.470747442298</v>
       </c>
       <c r="W5" t="n">
-        <v>2923.174187958684</v>
+        <v>2594.710446577466</v>
       </c>
       <c r="X5" t="n">
-        <v>2522.530790127637</v>
+        <v>2194.067048746419</v>
       </c>
       <c r="Y5" t="n">
-        <v>2121.594117075727</v>
+        <v>1797.821289071924</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K6" t="n">
-        <v>529.5221734925958</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L6" t="n">
-        <v>896.7025562821959</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="M6" t="n">
-        <v>896.7025562821959</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="N6" t="n">
-        <v>1770.360648393814</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="O6" t="n">
-        <v>1770.360648393814</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="P6" t="n">
-        <v>1770.360648393814</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q6" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R6" t="n">
         <v>2120.205113077797</v>
@@ -4749,28 +4749,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1331.450327403457</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T7" t="n">
-        <v>1091.901588380159</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U7" t="n">
-        <v>809.1034409262836</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="V7" t="n">
-        <v>535.2176958658056</v>
+        <v>903.2885616442816</v>
       </c>
       <c r="W7" t="n">
-        <v>256.1480313746799</v>
+        <v>624.2188971531559</v>
       </c>
       <c r="X7" t="n">
-        <v>73.71591722729714</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.71591722729714</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.95323474668</v>
+        <v>1509.609005154361</v>
       </c>
       <c r="C8" t="n">
-        <v>1544.82864405995</v>
+        <v>1509.609005154361</v>
       </c>
       <c r="D8" t="n">
-        <v>1207.69291418985</v>
+        <v>1509.609005154361</v>
       </c>
       <c r="E8" t="n">
-        <v>793.352698706747</v>
+        <v>1095.268789671258</v>
       </c>
       <c r="F8" t="n">
-        <v>793.352698706747</v>
+        <v>674.2383776249451</v>
       </c>
       <c r="G8" t="n">
-        <v>384.6244145995792</v>
+        <v>265.5100935177772</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
         <v>73.71591722729714</v>
@@ -4807,22 +4807,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>270.9172995859905</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L8" t="n">
-        <v>983.5086993982285</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M8" t="n">
-        <v>1759.827290389982</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N8" t="n">
-        <v>2513.0083070286</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O8" t="n">
-        <v>3156.639163445705</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P8" t="n">
-        <v>3685.795861364857</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="Q8" t="n">
         <v>3685.795861364857</v>
@@ -4834,22 +4834,22 @@
         <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>3550.514786158958</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U8" t="n">
-        <v>3550.514786158958</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V8" t="n">
-        <v>3550.514786158958</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W8" t="n">
-        <v>3166.754485294126</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="X8" t="n">
-        <v>2766.111087463079</v>
+        <v>2320.76685787076</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.174414411169</v>
+        <v>1919.83018481885</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2318.137507400892</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>2184.142436149837</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>2067.24527836923</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>1946.752462361558</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>1837.792582544062</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>1730.802469858401</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>1660.055256894117</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>2109.302170761766</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>2952.279251456333</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N9" t="n">
-        <v>2952.279251456333</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="O9" t="n">
-        <v>3656.236342002227</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="P9" t="n">
-        <v>3656.236342002227</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q9" t="n">
-        <v>3656.236342002227</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>3577.805851479166</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>3418.463987666174</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>3221.113176804393</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>3007.401649797427</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>2794.168481533755</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>2617.842499672648</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>2458.440540036478</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.71591722729714</v>
+        <v>211.7834921478762</v>
       </c>
       <c r="C10" t="n">
-        <v>73.71591722729714</v>
+        <v>211.7834921478762</v>
       </c>
       <c r="D10" t="n">
-        <v>73.71591722729714</v>
+        <v>211.7834921478762</v>
       </c>
       <c r="E10" t="n">
-        <v>73.71591722729714</v>
+        <v>211.7834921478762</v>
       </c>
       <c r="F10" t="n">
         <v>73.71591722729714</v>
@@ -4986,28 +4986,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.450327403457</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T10" t="n">
-        <v>1091.901588380159</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U10" t="n">
-        <v>809.1034409262836</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="V10" t="n">
-        <v>535.2176958658056</v>
+        <v>903.2885616442816</v>
       </c>
       <c r="W10" t="n">
-        <v>256.1480313746799</v>
+        <v>624.2188971531559</v>
       </c>
       <c r="X10" t="n">
-        <v>73.71591722729714</v>
+        <v>624.2188971531559</v>
       </c>
       <c r="Y10" t="n">
-        <v>73.71591722729714</v>
+        <v>399.4831985419206</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2124.157056153891</v>
+        <v>2320.76685787076</v>
       </c>
       <c r="C11" t="n">
-        <v>1714.032465467161</v>
+        <v>2119.539018826029</v>
       </c>
       <c r="D11" t="n">
-        <v>1309.568535560222</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E11" t="n">
-        <v>895.2283200771185</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F11" t="n">
-        <v>793.352698706747</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G11" t="n">
-        <v>384.6244145995792</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H11" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I11" t="n">
         <v>73.71591722729714</v>
@@ -5053,7 +5053,7 @@
         <v>2100.785409140329</v>
       </c>
       <c r="N11" t="n">
-        <v>2513.0083070286</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O11" t="n">
         <v>3156.639163445705</v>
@@ -5068,25 +5068,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T11" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U11" t="n">
-        <v>3685.795861364857</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V11" t="n">
-        <v>3335.958306701338</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W11" t="n">
-        <v>3335.958306701338</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="X11" t="n">
-        <v>2935.31490887029</v>
+        <v>2320.76685787076</v>
       </c>
       <c r="Y11" t="n">
-        <v>2534.37823581838</v>
+        <v>2320.76685787076</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>529.5221734925958</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>529.5221734925958</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M12" t="n">
-        <v>529.5221734925958</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N12" t="n">
-        <v>529.5221734925958</v>
+        <v>1790.351090033482</v>
       </c>
       <c r="O12" t="n">
-        <v>1208.654755905284</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
-        <v>1770.360648393814</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
         <v>2120.205113077797</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
         <v>73.71591722729714</v>
@@ -5223,28 +5223,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>256.1480313746799</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>190.061963122971</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1867.096564413401</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="C14" t="n">
-        <v>1456.971973726671</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D14" t="n">
-        <v>1052.508043819731</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E14" t="n">
-        <v>638.1678283366282</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F14" t="n">
-        <v>217.1374162903157</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G14" t="n">
-        <v>217.1374162903157</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H14" t="n">
         <v>73.71591722729714</v>
@@ -5290,16 +5290,16 @@
         <v>2100.785409140329</v>
       </c>
       <c r="N14" t="n">
-        <v>2151.290654543744</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O14" t="n">
-        <v>2794.921510960849</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P14" t="n">
-        <v>3324.07820888</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q14" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
         <v>3685.795861364857</v>
@@ -5308,22 +5308,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U14" t="n">
-        <v>3428.735369624367</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="V14" t="n">
-        <v>3078.897814960848</v>
+        <v>3113.751822648197</v>
       </c>
       <c r="W14" t="n">
-        <v>3078.897814960848</v>
+        <v>2834.76732702606</v>
       </c>
       <c r="X14" t="n">
-        <v>2678.2544171298</v>
+        <v>2434.123929195012</v>
       </c>
       <c r="Y14" t="n">
-        <v>2277.31774407789</v>
+        <v>2033.187256143102</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K15" t="n">
-        <v>529.5221734925958</v>
+        <v>555.8993296842611</v>
       </c>
       <c r="L15" t="n">
-        <v>1190.610345411884</v>
+        <v>1216.987501603549</v>
       </c>
       <c r="M15" t="n">
-        <v>1190.610345411884</v>
+        <v>1216.987501603549</v>
       </c>
       <c r="N15" t="n">
-        <v>1190.610345411884</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="O15" t="n">
-        <v>1894.567435957778</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="P15" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q15" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R15" t="n">
         <v>2120.205113077797</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.1034409262836</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>809.1034409262836</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>809.1034409262836</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
         <v>73.71591722729714</v>
@@ -5460,28 +5460,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U16" t="n">
-        <v>809.1034409262836</v>
+        <v>1089.750887530453</v>
       </c>
       <c r="V16" t="n">
-        <v>809.1034409262836</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W16" t="n">
-        <v>809.1034409262836</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X16" t="n">
-        <v>809.1034409262836</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y16" t="n">
-        <v>809.1034409262836</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5545,16 +5545,16 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3360.349242692484</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
         <v>3360.349242692484</v>
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>594.0158422120428</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>422.9224697737593</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>263.4278250966693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>263.4278250966693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>263.4278250966693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1111.429368843485</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>832.3597043523594</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>594.0158422120428</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.0158422120428</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U20" t="n">
-        <v>4097.330235996674</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3747.492681333154</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3363.732380468323</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2963.088982637275</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2562.152309585365</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>827.6148396568026</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>827.6148396568026</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>827.6148396568026</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1065.958701797119</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>1065.958701797119</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>827.6148396568026</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>827.6148396568026</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2459.725286714852</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2049.600696028122</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1645.136766121183</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1230.796550638079</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>809.7661385917668</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>401.0378544845989</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6022,19 +6022,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3671.526537262299</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3270.883139431251</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2869.946466379341</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6080,16 +6080,16 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>4662.18488453114</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>4634.555243216706</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6253,16 +6253,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W26" t="n">
         <v>3760.992640523532</v>
@@ -6305,19 +6305,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>254.1545128223033</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2913.395580172211</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L30" t="n">
-        <v>1210.13812587521</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.13812587521</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N30" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O30" t="n">
-        <v>1914.095216421104</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6651,22 +6651,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>1595.012952997039</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>452.2785793327262</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>141.3700819604442</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>785.5915297627801</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>785.5915297627801</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>785.5915297627801</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1297.821136963575</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U34" t="n">
-        <v>1297.821136963575</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>1023.935391903097</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>1023.935391903097</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>785.5915297627801</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>785.5915297627801</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2134.851174492981</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1724.726583806251</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4559.51725636241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4337.310772309269</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4080.250280568779</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3730.41272590526</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3346.652425040428</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2946.009027209381</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2545.072354157471</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N36" t="n">
-        <v>966.9017898022406</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3303.879360348573</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4507.614037045773</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>4233.728291985295</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>3954.658627494169</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>3716.314765353853</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>3491.579066742617</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2128.160977929772</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C38" t="n">
-        <v>1718.036387243042</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D38" t="n">
-        <v>1313.572457336103</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E38" t="n">
-        <v>899.2322418529996</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7204,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4330.62057574606</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4073.56008400557</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V38" t="n">
-        <v>3723.722529342051</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W38" t="n">
-        <v>3339.962228477219</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X38" t="n">
-        <v>2939.318830646172</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y38" t="n">
-        <v>2538.382157594262</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1436.250826191383</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U40" t="n">
-        <v>1436.250826191383</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V40" t="n">
-        <v>1436.250826191383</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W40" t="n">
-        <v>1436.250826191383</v>
+        <v>462.0675799580952</v>
       </c>
       <c r="X40" t="n">
-        <v>1436.250826191383</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="Y40" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1740.396755289059</v>
+        <v>2038.847916922893</v>
       </c>
       <c r="C41" t="n">
-        <v>1330.272164602329</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="D41" t="n">
-        <v>1317.814828863881</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E41" t="n">
-        <v>903.4746133807774</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F41" t="n">
-        <v>482.444201334465</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G41" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H41" t="n">
         <v>73.71591722729714</v>
@@ -7417,22 +7417,22 @@
         <v>866.0608898040909</v>
       </c>
       <c r="L41" t="n">
-        <v>1578.652289616329</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="M41" t="n">
-        <v>1719.270644700418</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N41" t="n">
-        <v>2472.451661339036</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O41" t="n">
-        <v>3116.082517756141</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P41" t="n">
-        <v>3645.239215675292</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q41" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
         <v>3685.795861364857</v>
@@ -7453,10 +7453,10 @@
         <v>2952.198005836506</v>
       </c>
       <c r="X41" t="n">
-        <v>2551.554608005459</v>
+        <v>2850.005769639292</v>
       </c>
       <c r="Y41" t="n">
-        <v>2150.617934953549</v>
+        <v>2449.069096587382</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K42" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L42" t="n">
-        <v>73.71591722729714</v>
+        <v>854.5421300433729</v>
       </c>
       <c r="M42" t="n">
-        <v>513.0304110576551</v>
+        <v>854.5421300433729</v>
       </c>
       <c r="N42" t="n">
-        <v>1386.688503169273</v>
+        <v>854.5421300433729</v>
       </c>
       <c r="O42" t="n">
-        <v>2090.645593715167</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P42" t="n">
-        <v>2090.645593715167</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q42" t="n">
-        <v>2090.645593715167</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
         <v>2120.205113077797</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2488.401152313972</v>
+        <v>233.2105619043871</v>
       </c>
       <c r="C43" t="n">
-        <v>2317.307779875688</v>
+        <v>233.2105619043871</v>
       </c>
       <c r="D43" t="n">
-        <v>2317.307779875688</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>2874.19299859201</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3155.03178098626</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>3446.247122341559</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>3163.448974887683</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="V43" t="n">
-        <v>2889.563229827205</v>
+        <v>1089.680329764371</v>
       </c>
       <c r="W43" t="n">
-        <v>2610.493565336079</v>
+        <v>810.6106652732458</v>
       </c>
       <c r="X43" t="n">
-        <v>2488.401152313972</v>
+        <v>572.2668031329292</v>
       </c>
       <c r="Y43" t="n">
-        <v>2488.401152313972</v>
+        <v>347.5311045216939</v>
       </c>
     </row>
     <row r="44">
@@ -7630,46 +7630,46 @@
         <v>1330.272164602329</v>
       </c>
       <c r="D44" t="n">
-        <v>1330.272164602329</v>
+        <v>925.8082346953897</v>
       </c>
       <c r="E44" t="n">
-        <v>915.9319491192259</v>
+        <v>511.4680192122864</v>
       </c>
       <c r="F44" t="n">
-        <v>494.9015370729135</v>
+        <v>90.43760716597399</v>
       </c>
       <c r="G44" t="n">
-        <v>470.976177282506</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>160.067679910224</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>866.0608898040909</v>
+        <v>270.9172995859905</v>
       </c>
       <c r="L44" t="n">
-        <v>942.9520537086636</v>
+        <v>983.5086993982285</v>
       </c>
       <c r="M44" t="n">
-        <v>1719.270644700418</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N44" t="n">
-        <v>2472.451661339036</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.082517756141</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P44" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
         <v>3685.795861364857</v>
@@ -7727,22 +7727,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K45" t="n">
-        <v>529.5221734925958</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L45" t="n">
-        <v>1190.610345411884</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.654755905284</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="N45" t="n">
-        <v>1208.654755905284</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="O45" t="n">
-        <v>1208.654755905284</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="P45" t="n">
         <v>1770.360648393814</v>
@@ -7981,25 +7981,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L2" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>877.4504173780091</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
-        <v>644.7959590787925</v>
+        <v>560.9556389650778</v>
       </c>
       <c r="P2" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8060,19 +8060,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>586.7544045839516</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>196.1768986784668</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8081,7 +8081,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,16 +8221,16 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>105.5011845042942</v>
       </c>
       <c r="M5" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>835.0261771304423</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
         <v>628.1510783507341</v>
@@ -8239,7 +8239,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>427.0037993558997</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>664.9610054731837</v>
       </c>
       <c r="N6" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>288.3297051870488</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
@@ -8470,10 +8470,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>280.1333793171372</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8537,25 +8537,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8574584041912</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>915.4839494260226</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8701,10 +8701,10 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>509.2990563003282</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>398.9198136730141</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
@@ -8771,25 +8771,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>743.7439864875636</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8938,19 +8938,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>143.9276901540081</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>348.1192725768687</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
@@ -9017,19 +9017,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>282.1764805785804</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>322.8042452836262</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>194.539943489316</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>194.539943489316</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
@@ -10676,19 +10676,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O36" t="n">
-        <v>675.0496721821739</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -10925,7 +10925,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,10 +11065,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>235.3289669662258</v>
+        <v>671.6795111142167</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11080,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>189.6570480412973</v>
       </c>
       <c r="M42" t="n">
-        <v>501.316297708476</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389136</v>
+        <v>288.3297051870488</v>
       </c>
       <c r="L44" t="n">
-        <v>173.153240390696</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11320,7 +11320,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
@@ -11384,7 +11384,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>75.79096100447774</v>
+        <v>448.4101882023532</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11393,7 +11393,7 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>39.45736842189649</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22600,22 +22600,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>65.21423733323948</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,25 +22755,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>8.893130557884263</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1745055375993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>65.81802848046783</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>4.644004243641177</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.3526305130045</v>
+        <v>99.27352434754016</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>66.65491803647194</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>203.4114229270815</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23190,7 +23190,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>26.29791545914136</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.3526305130045</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>206.8077841255785</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>315.9632427691815</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23436,7 +23436,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>170.5352159497216</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>165.8121283261708</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23548,16 +23548,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>103.7280471902677</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>23.12472639190884</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>8.893130557884319</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>45.84716204233376</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23904,10 +23904,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>145.2069816743239</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>54.06597461814459</v>
       </c>
       <c r="U20" t="n">
-        <v>49.19646844041395</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>24.13094430738749</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24262,7 +24262,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>54.06597461814499</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>96.14494677818658</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6543374933683</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.55681957367977</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>37.84312462897442</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>65.73402110246981</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>32.28731256679784</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25365,10 +25365,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>126.9450269688244</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>25.66401796922159</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.1745055375995</v>
+        <v>93.31312169923876</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>388.0865282268061</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>295.4666500174949</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>72.64537213897023</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>115.0889346270271</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>380.9548950735927</v>
+        <v>388.086528226806</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>604671.4100402681</v>
+        <v>604671.4100402683</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>604671.4100402681</v>
+        <v>604671.4100402683</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>695156.8020842248</v>
+        <v>695156.802084225</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695156.8020842248</v>
+        <v>695156.802084225</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695156.8020842249</v>
+        <v>695156.802084225</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695156.8020842249</v>
+        <v>695156.802084225</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695156.8020842248</v>
+        <v>695156.802084225</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>695156.8020842249</v>
+        <v>695156.802084225</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695156.8020842251</v>
+        <v>695156.802084225</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695156.8020842246</v>
+        <v>695156.8020842249</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>277141.0629351232</v>
+        <v>277141.0629351233</v>
       </c>
       <c r="C2" t="n">
         <v>277141.0629351231</v>
       </c>
       <c r="D2" t="n">
+        <v>277141.0629351232</v>
+      </c>
+      <c r="E2" t="n">
         <v>277141.0629351231</v>
       </c>
-      <c r="E2" t="n">
-        <v>277141.0629351233</v>
-      </c>
       <c r="F2" t="n">
-        <v>277141.0629351231</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="G2" t="n">
         <v>318613.5342886032</v>
       </c>
       <c r="H2" t="n">
-        <v>318613.5342886032</v>
+        <v>318613.5342886033</v>
       </c>
       <c r="I2" t="n">
-        <v>318613.5342886032</v>
+        <v>318613.5342886033</v>
       </c>
       <c r="J2" t="n">
         <v>318613.5342886032</v>
       </c>
       <c r="K2" t="n">
-        <v>318613.5342886031</v>
+        <v>318613.5342886033</v>
       </c>
       <c r="L2" t="n">
-        <v>318613.5342886031</v>
+        <v>318613.5342886033</v>
       </c>
       <c r="M2" t="n">
-        <v>318613.5342886033</v>
+        <v>318613.5342886032</v>
       </c>
       <c r="N2" t="n">
-        <v>318613.5342886031</v>
+        <v>318613.5342886034</v>
       </c>
       <c r="O2" t="n">
-        <v>277141.0629351229</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="P2" t="n">
-        <v>277141.062935123</v>
+        <v>277141.0629351232</v>
       </c>
     </row>
     <row r="3">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>622.7246651156231</v>
+      </c>
+      <c r="C4" t="n">
+        <v>622.7246651156231</v>
+      </c>
+      <c r="D4" t="n">
+        <v>622.7246651156231</v>
+      </c>
+      <c r="E4" t="n">
         <v>622.7246651156232</v>
-      </c>
-      <c r="C4" t="n">
-        <v>622.7246651156232</v>
-      </c>
-      <c r="D4" t="n">
-        <v>622.7246651156232</v>
-      </c>
-      <c r="E4" t="n">
-        <v>622.7246651156231</v>
       </c>
       <c r="F4" t="n">
         <v>622.7246651156232</v>
@@ -26459,7 +26459,7 @@
         <v>622.7246651156232</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7246651156231</v>
+        <v>622.7246651156233</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121932.100434782</v>
+        <v>-122301.1922608559</v>
       </c>
       <c r="C6" t="n">
-        <v>186866.6411772617</v>
+        <v>186497.5493511876</v>
       </c>
       <c r="D6" t="n">
-        <v>186866.6411772617</v>
+        <v>186497.5493511877</v>
       </c>
       <c r="E6" t="n">
-        <v>220494.2411772618</v>
+        <v>220125.1493511876</v>
       </c>
       <c r="F6" t="n">
-        <v>220494.2411772617</v>
+        <v>220125.1493511877</v>
       </c>
       <c r="G6" t="n">
-        <v>180106.7997599526</v>
+        <v>179926.2191673035</v>
       </c>
       <c r="H6" t="n">
-        <v>247010.1961135853</v>
+        <v>246829.6155209362</v>
       </c>
       <c r="I6" t="n">
-        <v>247010.1961135852</v>
+        <v>246829.6155209362</v>
       </c>
       <c r="J6" t="n">
-        <v>5918.60302584857</v>
+        <v>5738.022433199499</v>
       </c>
       <c r="K6" t="n">
-        <v>247010.1961135851</v>
+        <v>246829.6155209362</v>
       </c>
       <c r="L6" t="n">
-        <v>247010.1961135851</v>
+        <v>246829.6155209362</v>
       </c>
       <c r="M6" t="n">
-        <v>247010.1961135853</v>
+        <v>246829.6155209362</v>
       </c>
       <c r="N6" t="n">
-        <v>247010.1961135851</v>
+        <v>246829.6155209363</v>
       </c>
       <c r="O6" t="n">
-        <v>220494.2411772615</v>
+        <v>220125.1493511877</v>
       </c>
       <c r="P6" t="n">
-        <v>220494.2411772616</v>
+        <v>220125.1493511877</v>
       </c>
     </row>
   </sheetData>
@@ -34701,25 +34701,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L2" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>784.1601929209636</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
-        <v>551.6061834530094</v>
+        <v>467.7658633392946</v>
       </c>
       <c r="P2" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34780,19 +34780,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>530.6398807731025</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>138.4254196784668</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,16 +34941,16 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>10.0157864414494</v>
       </c>
       <c r="M5" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>742.113886373823</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
         <v>534.50171506985</v>
@@ -34959,7 +34959,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8892755450506</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>607.3967217347663</v>
       </c>
       <c r="N6" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>199.1933155138316</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
@@ -35190,10 +35190,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>474.7429345933422</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>862.2905560322727</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35421,10 +35421,10 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>416.3867655437089</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>650.1321781990958</v>
+        <v>305.7300380472309</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>685.9925074875636</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,19 +35658,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>51.01539939738873</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>292.2934897922533</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>227.9168455757767</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35901,13 +35901,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>265.0527662836262</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.425419678467</v>
       </c>
       <c r="M27" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>138.425419678467</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O36" t="n">
-        <v>617.2981931821739</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,10 +37785,10 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>142.0387425091803</v>
+        <v>578.3892866571712</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37800,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>133.5425242304483</v>
       </c>
       <c r="M42" t="n">
-        <v>443.7520139700586</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656965</v>
+        <v>199.1933155138316</v>
       </c>
       <c r="L44" t="n">
-        <v>77.66784232785115</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38040,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
@@ -38104,7 +38104,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>18.22667726606031</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
